--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2470.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2470.xlsx
@@ -354,7 +354,7 @@
         <v>2.613434609535449</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>3.51325721643976</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2470.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2470.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135454564515971</v>
+        <v>1.460039973258972</v>
       </c>
       <c r="B1">
-        <v>2.613434609535449</v>
+        <v>2.030557870864868</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.517162799835205</v>
       </c>
       <c r="D1">
-        <v>3.51325721643976</v>
+        <v>4.7967848777771</v>
       </c>
       <c r="E1">
-        <v>0.9364244822329461</v>
+        <v>0.7974292635917664</v>
       </c>
     </row>
   </sheetData>
